--- a/本体/雷达与探测知识抽取.xlsx
+++ b/本体/雷达与探测知识抽取.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TIAN/实验室/雷达抽取/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="6255" windowWidth="28815" windowHeight="6285" tabRatio="1000" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="24740" windowHeight="15540" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="步骤1-A概念提取（按章节）" sheetId="1" r:id="rId1"/>
@@ -22,9 +27,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'步骤4-B datatypeProperties'!$A$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="810">
   <si>
     <t>脉冲重复频率</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3244,6 +3252,10 @@
   <si>
     <t>频段</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷达</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3613,7 +3625,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3623,21 +3635,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H392"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13:E20"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13.375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="29.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="22.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.625" style="1"/>
+    <col min="1" max="1" width="16.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -7349,15 +7361,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8364,9 +8376,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8509,15 +8521,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C109" sqref="A51:C109"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9278,10 +9290,10 @@
       <selection activeCell="A26" sqref="A26:XFD77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="3" width="13.625" customWidth="1"/>
+    <col min="2" max="3" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -13510,9 +13522,9 @@
       <selection activeCell="A115" sqref="A115:B119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -14435,15 +14447,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L394"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="B19" activeCellId="2" sqref="A79 B19 B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="3"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -16813,16 +16825,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58:C62"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -16844,591 +16856,815 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>192</v>
-      </c>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>193</v>
-      </c>
+      <c r="C7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>205</v>
+      <c r="D9" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>206</v>
+      <c r="D10" s="7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>207</v>
+      <c r="D11" s="7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
-        <v>195</v>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>196</v>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>197</v>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
-        <v>68</v>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
-        <v>218</v>
+      <c r="C18" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>229</v>
+      <c r="D20" s="7" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>230</v>
+      <c r="D21" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>231</v>
+      <c r="D22" s="7" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
-        <v>69</v>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
-        <v>95</v>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
-        <v>233</v>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7" t="s">
-        <v>234</v>
+      <c r="C26" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
-        <v>235</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
-      <c r="C30" s="7" t="s">
-        <v>70</v>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7" t="s">
-        <v>249</v>
+      <c r="C33" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
-      <c r="C34" s="7" t="s">
-        <v>71</v>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7" t="s">
-        <v>253</v>
+      <c r="C37" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
       <c r="D38" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
-      <c r="C40" s="7" t="s">
-        <v>72</v>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7" t="s">
-        <v>259</v>
+      <c r="C43" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7"/>
-      <c r="C46" s="7" t="s">
-        <v>73</v>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
       <c r="D48" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7" t="s">
+    <row r="55" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="7"/>
+      <c r="C55" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7" t="s">
+    <row r="56" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="7" t="s">
+    <row r="57" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="7" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="7" t="s">
+    <row r="58" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="7" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="6"/>
-      <c r="C56" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="6"/>
-      <c r="C57" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="6"/>
       <c r="C59" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="6"/>
       <c r="C60" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="6"/>
-      <c r="C61" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C61" s="6"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="6"/>
       <c r="C62" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="6"/>
+      <c r="C63" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="6"/>
+      <c r="C64" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="6"/>
+      <c r="C65" s="7" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>50</v>
-      </c>
-      <c r="C65" t="s">
-        <v>51</v>
-      </c>
-      <c r="D65" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="66" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="7"/>
+      <c r="C67" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="7"/>
+      <c r="C70" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="7"/>
+      <c r="C73" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="7"/>
+      <c r="C79" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="7"/>
+      <c r="C82" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="7"/>
+      <c r="C88" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="7"/>
+      <c r="C92" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>57</v>
+      </c>
+      <c r="C100" t="s">
+        <v>58</v>
+      </c>
+      <c r="D100" t="s">
+        <v>60</v>
+      </c>
+      <c r="E100" t="s">
+        <v>59</v>
+      </c>
+      <c r="F100" t="s">
+        <v>61</v>
+      </c>
+      <c r="G100" t="s">
+        <v>62</v>
+      </c>
+      <c r="H100" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="6" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="67" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="7" t="s">
+    <row r="102" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="68" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="7" t="s">
+    <row r="103" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C103" s="7" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="69" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="7" t="s">
+    <row r="104" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C104" s="7" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="7" t="s">
+    <row r="105" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C105" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="7" t="s">
+    <row r="106" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="72" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="7" t="s">
+    <row r="107" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="7" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="73" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="7" t="s">
+    <row r="108" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="7" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="74" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="7" t="s">
+    <row r="109" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C109" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="75" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="7" t="s">
+    <row r="110" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C110" s="7" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="76" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="7" t="s">
+    <row r="111" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C111" s="7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="77" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="7" t="s">
+    <row r="112" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C112" s="7" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="7" t="s">
+    <row r="113" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C79" s="7" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C114" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C80" s="7" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C115" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C81" s="7" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C116" s="7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>57</v>
-      </c>
-      <c r="C84" t="s">
-        <v>58</v>
-      </c>
-      <c r="D84" t="s">
-        <v>60</v>
-      </c>
-      <c r="E84" t="s">
-        <v>59</v>
-      </c>
-      <c r="F84" t="s">
-        <v>61</v>
-      </c>
-      <c r="G84" t="s">
-        <v>62</v>
-      </c>
-      <c r="H84" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
         <v>805</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C122" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C92" s="7" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C124" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C93" s="7" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C125" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C94" s="7" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C126" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C95" s="7" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C127" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C96" s="7" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C128" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="7" t="s">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C129" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C98" s="7" t="s">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C130" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" s="7" t="s">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C131" s="7" t="s">
         <v>83</v>
       </c>
     </row>
@@ -17446,7 +17682,7 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17461,9 +17697,9 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -17689,19 +17925,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
-    <col min="2" max="2" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
